--- a/TestDatas/自动化测试用例.xlsx
+++ b/TestDatas/自动化测试用例.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ZHAF\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B715DF-6295-47ED-8248-BE6F9F528AAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E9A218-5105-4A15-9D2D-07117A29619A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="辖区总览" sheetId="1" r:id="rId1"/>
+    <sheet name="边缘智能" sheetId="2" r:id="rId2"/>
+    <sheet name="解析管理" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
   <si>
     <t>所属模块</t>
   </si>
@@ -652,6 +654,102 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览模式切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索功能_在线设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索功能_离线设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试全屏按钮是否正常生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试预览模式是否正常生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试搜索功能是否正常生效，搜索在线设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试搜索功能是否正常生效，搜索离线设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统页面正常全屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、预览模式，地图模式可以正常切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、搜索在线设备功能正常生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、搜索离线设备功能正常生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_视频流相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_智能抓拍机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_GB28181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_1400视图库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源_离线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务数统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查页面任务数统计是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、相机数量统计正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1055,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1712,4 +1810,394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248C8DAB-70D8-48EB-A84F-A7EDC589911C}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F25FEE4-42C1-41BA-9244-D1DABD13B109}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestDatas/自动化测试用例.xlsx
+++ b/TestDatas/自动化测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ZHAF\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E9A218-5105-4A15-9D2D-07117A29619A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F56DE-1A64-4AF1-A47B-4AB76875DA1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="128">
   <si>
     <t>所属模块</t>
   </si>
@@ -750,6 +750,77 @@
   </si>
   <si>
     <t>1、相机数量统计正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子场所切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换包含子场所和不包含子场所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、包含子场所时会显示所有设备数量
+2、不包含子场所是显示当前目录下的设备数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子场所筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证子场所筛选功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、筛选功能正常生效
+2、筛选出的设备数量显示正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证查询功能是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、可以正常查询到所需的数据
+2、查询的数据与预期一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证重置按钮是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的数据可以正常重置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -871,6 +942,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1154,7 +1231,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2126,17 +2203,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F25FEE4-42C1-41BA-9244-D1DABD13B109}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2195,6 +2272,110 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDatas/自动化测试用例.xlsx
+++ b/TestDatas/自动化测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ZHAF\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F56DE-1A64-4AF1-A47B-4AB76875DA1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC63C09C-179D-4F80-8F88-4E7FFBDEAD63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="156">
   <si>
     <t>所属模块</t>
   </si>
@@ -821,6 +821,118 @@
   </si>
   <si>
     <t>1、查询到的数据可以正常重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型筛选_智能抓拍机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型筛选_视屏流相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备筛选_GB28181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备筛选_1400视图库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态筛选_已停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态筛选_运行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态筛选_启动中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态筛选_停止中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态筛选_故障中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证设备类型筛选功能是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证任务状态是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的设备类型都是智能抓拍机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的设备类型都是视屏流相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的设备类型都是GB28181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的设备类型都是1400视图库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的任务状态都是已停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的任务状态都是运行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的任务状态都是启动中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的任务状态都是停止中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询到的任务状态都是故障中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合筛选设备类型任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过设备类型和任务状态来筛选设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、筛选到的设备属性与预期的设备属性一直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2203,16 +2315,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F25FEE4-42C1-41BA-9244-D1DABD13B109}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
@@ -2376,6 +2488,266 @@
         <v>120</v>
       </c>
     </row>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDatas/自动化测试用例.xlsx
+++ b/TestDatas/自动化测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ZHAF\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC63C09C-179D-4F80-8F88-4E7FFBDEAD63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB73BEB-ADCF-4734-88E8-FD8A176420AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="167">
   <si>
     <t>所属模块</t>
   </si>
@@ -933,6 +933,50 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证功能是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、功能正常生效，停止中的设备状态变为运行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、功能正常生效，运行中的设备状态变为已停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、功能正常生效，解析规则修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1387,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2006,7 +2050,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2315,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F25FEE4-42C1-41BA-9244-D1DABD13B109}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2748,6 +2792,84 @@
         <v>151</v>
       </c>
     </row>
+    <row r="17" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestDatas/自动化测试用例.xlsx
+++ b/TestDatas/自动化测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ZHAF\TestDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB73BEB-ADCF-4734-88E8-FD8A176420AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A29C81A-8737-422A-80D3-D8B653BCFBC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="辖区总览" sheetId="1" r:id="rId1"/>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2050,7 +2050,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2361,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F25FEE4-42C1-41BA-9244-D1DABD13B109}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
